--- a/backend/public/Izvestaj.xlsx
+++ b/backend/public/Izvestaj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Izvestaj</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>2022-06-14</t>
+    <t>2022-06-16</t>
   </si>
   <si>
     <t xml:space="preserve">Ukupan broj postova: </t>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">Prosecan broj komentara po korisniku: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objava koja se najvise komentarise: </t>
+  </si>
+  <si>
+    <t>Naslov 1i</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -416,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -424,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -440,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -448,7 +454,15 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
